--- a/result/IPI_plus.xlsx
+++ b/result/IPI_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{F8DD7346-64BE-4898-919B-14400F089315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E595EAA3-A6C0-4074-B563-A6B9305CCB52}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{F8DD7346-64BE-4898-919B-14400F089315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB7270EF-A56A-44A5-BBE5-D07F57B9ECA7}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{60EED335-6015-4A3C-8FDB-D7C250FF284E}"/>
   </bookViews>

--- a/result/IPI_plus.xlsx
+++ b/result/IPI_plus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/経済ファイル/02_分析/08_点検/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F8DD7346-64BE-4898-919B-14400F089315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB7270EF-A56A-44A5-BBE5-D07F57B9ECA7}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{F8DD7346-64BE-4898-919B-14400F089315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{246DA40C-2ED1-4C3B-B643-C71DFA2ECFF4}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{60EED335-6015-4A3C-8FDB-D7C250FF284E}"/>
   </bookViews>

--- a/result/IPI_plus.xlsx
+++ b/result/IPI_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{F8DD7346-64BE-4898-919B-14400F089315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{246DA40C-2ED1-4C3B-B643-C71DFA2ECFF4}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{F8DD7346-64BE-4898-919B-14400F089315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{176AB61F-4180-4A3D-9BCF-605CBBB18B36}"/>
   <bookViews>
-    <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{60EED335-6015-4A3C-8FDB-D7C250FF284E}"/>
+    <workbookView xWindow="38235" yWindow="4380" windowWidth="19365" windowHeight="10275" xr2:uid="{60EED335-6015-4A3C-8FDB-D7C250FF284E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,597 +393,597 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <v>-3.7299240530264788E-2</v>
+        <v>-3.7299240530264809E-2</v>
       </c>
       <c r="B1">
         <v>0.65625080807157132</v>
       </c>
       <c r="C1">
-        <v>0.17082054153261755</v>
+        <v>0.17082054153261753</v>
       </c>
       <c r="D1">
-        <v>5.9062572726441401E-2</v>
+        <v>5.9062572726441505E-2</v>
       </c>
       <c r="E1">
-        <v>0.40805396893306661</v>
+        <v>0.40805396893306684</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>-9.754750850567756E-2</v>
+        <v>-9.7547508505677616E-2</v>
       </c>
       <c r="B2">
-        <v>0.41013335301948989</v>
+        <v>0.41013335301948983</v>
       </c>
       <c r="C2">
-        <v>0.18425852575147778</v>
+        <v>0.1842585257514778</v>
       </c>
       <c r="D2">
-        <v>9.0658942952815749E-2</v>
+        <v>9.0658942952815902E-2</v>
       </c>
       <c r="E2">
-        <v>0.38290353213092337</v>
+        <v>0.3829035321309236</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>-0.1389094117450404</v>
+        <v>-0.13890941174504046</v>
       </c>
       <c r="B3">
-        <v>0.14457930195397314</v>
+        <v>0.14457930195397323</v>
       </c>
       <c r="C3">
-        <v>9.9742329392002949E-2</v>
+        <v>9.9742329392003032E-2</v>
       </c>
       <c r="D3">
-        <v>9.5511775262920012E-2</v>
+        <v>9.5511775262920123E-2</v>
       </c>
       <c r="E3">
-        <v>0.16872947519362499</v>
+        <v>0.16872947519362536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>-0.14457332850960189</v>
+        <v>-0.144573328509602</v>
       </c>
       <c r="B4">
-        <v>-2.5890164008792096E-3</v>
+        <v>-2.5890164008791398E-3</v>
       </c>
       <c r="C4">
-        <v>4.0365555210367943E-2</v>
+        <v>4.0365555210368075E-2</v>
       </c>
       <c r="D4">
-        <v>8.6682704013178027E-2</v>
+        <v>8.6682704013178111E-2</v>
       </c>
       <c r="E4">
-        <v>-2.086690996142173E-2</v>
+        <v>-2.0866909961421418E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>-0.12195975133164232</v>
+        <v>-0.12195975133164237</v>
       </c>
       <c r="B5">
-        <v>-5.4563492579120881E-2</v>
+        <v>-5.4563492579120756E-2</v>
       </c>
       <c r="C5">
-        <v>1.4451034722849481E-2</v>
+        <v>1.4451034722849579E-2</v>
       </c>
       <c r="D5">
-        <v>7.3970546319871114E-2</v>
+        <v>7.3970546319871183E-2</v>
       </c>
       <c r="E5">
-        <v>-0.11346601481014067</v>
+        <v>-0.11346601481014076</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>-8.7535191966035042E-2</v>
+        <v>-8.7535191966035056E-2</v>
       </c>
       <c r="B6">
-        <v>-5.4591992813280373E-2</v>
+        <v>-5.4591992813280234E-2</v>
       </c>
       <c r="C6">
-        <v>9.1059793490889662E-3</v>
+        <v>9.1059793490890616E-3</v>
       </c>
       <c r="D6">
-        <v>6.2399917797887471E-2</v>
+        <v>6.2399917797887526E-2</v>
       </c>
       <c r="E6">
-        <v>-0.12078391417337897</v>
+        <v>-0.12078391417337889</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>-5.5333760481306948E-2</v>
+        <v>-5.5333760481306907E-2</v>
       </c>
       <c r="B7">
-        <v>-3.5475939000497149E-2</v>
+        <v>-3.5475939000496996E-2</v>
       </c>
       <c r="C7">
-        <v>1.2251730814821339E-2</v>
+        <v>1.2251730814821511E-2</v>
       </c>
       <c r="D7">
-        <v>5.3591090686032919E-2</v>
+        <v>5.3591090686032933E-2</v>
       </c>
       <c r="E7">
-        <v>-8.240855096118517E-2</v>
+        <v>-8.2408550961185129E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>-3.2584244125130168E-2</v>
+        <v>-3.258424412513012E-2</v>
       </c>
       <c r="B8">
-        <v>-1.5869951089005439E-2</v>
+        <v>-1.5869951089005321E-2</v>
       </c>
       <c r="C8">
-        <v>1.6555708039712562E-2</v>
+        <v>1.6555708039712669E-2</v>
       </c>
       <c r="D8">
-        <v>4.7339596926279495E-2</v>
+        <v>4.7339596926279461E-2</v>
       </c>
       <c r="E8">
-        <v>-3.4246887061753897E-2</v>
+        <v>-3.424688706175389E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>-2.0304410128780936E-2</v>
+        <v>-2.0304410128780856E-2</v>
       </c>
       <c r="B9">
-        <v>-3.2524343880147278E-3</v>
+        <v>-3.2524343880145899E-3</v>
       </c>
       <c r="C9">
-        <v>1.8870870403491426E-2</v>
+        <v>1.8870870403491481E-2</v>
       </c>
       <c r="D9">
-        <v>4.2786314107992988E-2</v>
+        <v>4.2786314107993002E-2</v>
       </c>
       <c r="E9">
-        <v>2.7708064959456832E-3</v>
+        <v>2.7708064959456702E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>-1.5913057423773254E-2</v>
+        <v>-1.5913057423773157E-2</v>
       </c>
       <c r="B10">
-        <v>1.7518554605043828E-3</v>
+        <v>1.7518554605045408E-3</v>
       </c>
       <c r="C10">
-        <v>1.8715749239434674E-2</v>
+        <v>1.8715749239434743E-2</v>
       </c>
       <c r="D10">
-        <v>3.9093212829719025E-2</v>
+        <v>3.9093212829719039E-2</v>
       </c>
       <c r="E10">
-        <v>2.2156979795872188E-2</v>
+        <v>2.2156979795872264E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>-1.5808708685600373E-2</v>
+        <v>-1.5808708685600279E-2</v>
       </c>
       <c r="B11">
-        <v>1.5744231256228178E-3</v>
+        <v>1.5744231256229701E-3</v>
       </c>
       <c r="C11">
-        <v>1.6852280691061497E-2</v>
+        <v>1.6852280691061591E-2</v>
       </c>
       <c r="D11">
-        <v>3.5716521756350386E-2</v>
+        <v>3.57165217563504E-2</v>
       </c>
       <c r="E11">
-        <v>2.6553517127352644E-2</v>
+        <v>2.6553517127352752E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>-1.7007701534536502E-2</v>
+        <v>-1.7007701534536419E-2</v>
       </c>
       <c r="B12">
-        <v>-8.5811618174635952E-4</v>
+        <v>-8.5811618174621782E-4</v>
       </c>
       <c r="C12">
-        <v>1.4302975052693219E-2</v>
+        <v>1.4302975052693307E-2</v>
       </c>
       <c r="D12">
-        <v>3.2424804341921694E-2</v>
+        <v>3.2424804341921708E-2</v>
       </c>
       <c r="E12">
-        <v>2.2122099642371312E-2</v>
+        <v>2.2122099642371412E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>-1.7758388639490041E-2</v>
+        <v>-1.7758388639489971E-2</v>
       </c>
       <c r="B13">
-        <v>-3.4004816267181178E-3</v>
+        <v>-3.4004816267179743E-3</v>
       </c>
       <c r="C13">
-        <v>1.1844659862312298E-2</v>
+        <v>1.1844659862312376E-2</v>
       </c>
       <c r="D13">
-        <v>2.9200528604744116E-2</v>
+        <v>2.9200528604744133E-2</v>
       </c>
       <c r="E13">
-        <v>1.4699013118273895E-2</v>
+        <v>1.4699013118274006E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>-1.7448155786083244E-2</v>
+        <v>-1.7448155786083185E-2</v>
       </c>
       <c r="B14">
-        <v>-5.0006612068398699E-3</v>
+        <v>-5.0006612068397511E-3</v>
       </c>
       <c r="C14">
-        <v>9.8672079079105135E-3</v>
+        <v>9.867207907910595E-3</v>
       </c>
       <c r="D14">
-        <v>2.6122421521701571E-2</v>
+        <v>2.6122421521701591E-2</v>
       </c>
       <c r="E14">
-        <v>8.0638431016074701E-3</v>
+        <v>8.0638431016075568E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>-1.6195284154283923E-2</v>
+        <v>-1.6195284154283882E-2</v>
       </c>
       <c r="B15">
-        <v>-5.4769483751220633E-3</v>
+        <v>-5.476948375121954E-3</v>
       </c>
       <c r="C15">
-        <v>8.4402968662341416E-3</v>
+        <v>8.4402968662342093E-3</v>
       </c>
       <c r="D15">
-        <v>2.3278478230987453E-2</v>
+        <v>2.3278478230987484E-2</v>
       </c>
       <c r="E15">
-        <v>3.7835054614166457E-3</v>
+        <v>3.7835054614167303E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>-1.4419845083803463E-2</v>
+        <v>-1.4419845083803427E-2</v>
       </c>
       <c r="B16">
-        <v>-5.1228659841476712E-3</v>
+        <v>-5.1228659841475611E-3</v>
       </c>
       <c r="C16">
-        <v>7.4527363049500962E-3</v>
+        <v>7.4527363049501647E-3</v>
       </c>
       <c r="D16">
-        <v>2.0722357251625283E-2</v>
+        <v>2.0722357251625335E-2</v>
       </c>
       <c r="E16">
-        <v>1.8582257451393441E-3</v>
+        <v>1.8582257451394189E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>-1.2542680005015521E-2</v>
+        <v>-1.2542680005015487E-2</v>
       </c>
       <c r="B17">
-        <v>-4.3624051666618317E-3</v>
+        <v>-4.3624051666617111E-3</v>
       </c>
       <c r="C17">
-        <v>6.7391616997485608E-3</v>
+        <v>6.7391616997486475E-3</v>
       </c>
       <c r="D17">
-        <v>1.8464728633979445E-2</v>
+        <v>1.8464728633979501E-2</v>
       </c>
       <c r="E17">
-        <v>1.5393598260196207E-3</v>
+        <v>1.5393598260197052E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>-1.0842675316294905E-2</v>
+        <v>-1.0842675316294874E-2</v>
       </c>
       <c r="B18">
-        <v>-3.5427377459996507E-3</v>
+        <v>-3.5427377459995293E-3</v>
       </c>
       <c r="C18">
-        <v>6.1587771029672196E-3</v>
+        <v>6.1587771029673073E-3</v>
       </c>
       <c r="D18">
-        <v>1.6484056659781334E-2</v>
+        <v>1.64840566597814E-2</v>
       </c>
       <c r="E18">
-        <v>1.9629475630356537E-3</v>
+        <v>1.9629475630357548E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>-9.435592546515905E-3</v>
+        <v>-9.435592546515879E-3</v>
       </c>
       <c r="B19">
-        <v>-2.8603168904288078E-3</v>
+        <v>-2.8603168904286851E-3</v>
       </c>
       <c r="C19">
-        <v>5.6253569148200415E-3</v>
+        <v>5.6253569148201317E-3</v>
       </c>
       <c r="D19">
-        <v>1.4743063040262424E-2</v>
+        <v>1.474306304026249E-2</v>
       </c>
       <c r="E19">
-        <v>2.4893408754004774E-3</v>
+        <v>2.4893408754005845E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>-8.3175608175975781E-3</v>
+        <v>-8.3175608175975555E-3</v>
       </c>
       <c r="B20">
-        <v>-2.3747202528096611E-3</v>
+        <v>-2.3747202528095449E-3</v>
       </c>
       <c r="C20">
-        <v>5.1041452468584061E-3</v>
+        <v>5.1041452468585033E-3</v>
       </c>
       <c r="D20">
-        <v>1.3202462543885938E-2</v>
+        <v>1.3202462543886007E-2</v>
       </c>
       <c r="E20">
-        <v>2.7922937612433929E-3</v>
+        <v>2.792293761243494E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>-7.4251559268492242E-3</v>
+        <v>-7.4251559268491991E-3</v>
       </c>
       <c r="B21">
-        <v>-2.0598440516951593E-3</v>
+        <v>-2.0598440516950305E-3</v>
       </c>
       <c r="C21">
-        <v>4.5939287612843773E-3</v>
+        <v>4.5939287612844727E-3</v>
       </c>
       <c r="D21">
-        <v>1.1828854950283631E-2</v>
+        <v>1.182885495028372E-2</v>
       </c>
       <c r="E21">
-        <v>2.7996789115449878E-3</v>
+        <v>2.7996789115451014E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>-6.6837916644916081E-3</v>
+        <v>-6.6837916644915864E-3</v>
       </c>
       <c r="B22">
-        <v>-1.8562562150509761E-3</v>
+        <v>-1.8562562150508473E-3</v>
       </c>
       <c r="C22">
-        <v>4.1078349669337842E-3</v>
+        <v>4.1078349669338978E-3</v>
       </c>
       <c r="D22">
-        <v>1.0597194945403515E-2</v>
+        <v>1.059719494540361E-2</v>
       </c>
       <c r="E22">
-        <v>2.582762783601152E-3</v>
+        <v>2.5827627836012886E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>-6.0347639559874718E-3</v>
+        <v>-6.0347639559874596E-3</v>
       </c>
       <c r="B23">
-        <v>-1.7070757413202775E-3</v>
+        <v>-1.7070757413201524E-3</v>
       </c>
       <c r="C23">
-        <v>3.6597371400077443E-3</v>
+        <v>3.6597371400078596E-3</v>
       </c>
       <c r="D23">
-        <v>9.4898105835983688E-3</v>
+        <v>9.4898105835984712E-3</v>
       </c>
       <c r="E23">
-        <v>2.2569535050618499E-3</v>
+        <v>2.2569535050619965E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>-5.4432930446457872E-3</v>
+        <v>-5.4432930446457854E-3</v>
       </c>
       <c r="B24">
-        <v>-1.5743299797527706E-3</v>
+        <v>-1.5743299797526564E-3</v>
       </c>
       <c r="C24">
-        <v>3.2577267383028172E-3</v>
+        <v>3.2577267383029265E-3</v>
       </c>
       <c r="D24">
-        <v>8.4940379328967662E-3</v>
+        <v>8.494037932896872E-3</v>
       </c>
       <c r="E24">
-        <v>1.9202696934950525E-3</v>
+        <v>1.9202696934951873E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>-4.894863777485191E-3</v>
+        <v>-4.8948637774851979E-3</v>
       </c>
       <c r="B25">
-        <v>-1.4406837658800305E-3</v>
+        <v>-1.4406837658799253E-3</v>
       </c>
       <c r="C25">
-        <v>2.9030544740779856E-3</v>
+        <v>2.9030544740780888E-3</v>
       </c>
       <c r="D25">
-        <v>7.5999129800068546E-3</v>
+        <v>7.5999129800069631E-3</v>
       </c>
       <c r="E25">
-        <v>1.6297740648947778E-3</v>
+        <v>1.6297740648948907E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>-4.3871503794100522E-3</v>
+        <v>-4.3871503794100609E-3</v>
       </c>
       <c r="B26">
-        <v>-1.3036289864822243E-3</v>
+        <v>-1.3036289864821289E-3</v>
       </c>
       <c r="C26">
-        <v>2.5920032419630653E-3</v>
+        <v>2.5920032419631651E-3</v>
       </c>
       <c r="D26">
-        <v>6.7985942030228362E-3</v>
+        <v>6.7985942030229429E-3</v>
       </c>
       <c r="E26">
-        <v>1.4037459817995087E-3</v>
+        <v>1.4037459817996007E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>-3.9224358985470165E-3</v>
+        <v>-3.9224358985470217E-3</v>
       </c>
       <c r="B27">
-        <v>-1.1679627130561899E-3</v>
+        <v>-1.1679627130560979E-3</v>
       </c>
       <c r="C27">
-        <v>2.3185321611768569E-3</v>
+        <v>2.3185321611769593E-3</v>
       </c>
       <c r="D27">
-        <v>6.0816040805757258E-3</v>
+        <v>6.0816040805758281E-3</v>
       </c>
       <c r="E27">
-        <v>1.2354017672055509E-3</v>
+        <v>1.2354017672056331E-3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>-3.5027078772593427E-3</v>
+        <v>-3.5027078772593432E-3</v>
       </c>
       <c r="B28">
-        <v>-1.0398897427640063E-3</v>
+        <v>-1.0398897427639055E-3</v>
       </c>
       <c r="C28">
-        <v>2.0764150364786433E-3</v>
+        <v>2.076415036478747E-3</v>
       </c>
       <c r="D28">
-        <v>5.4406696364751508E-3</v>
+        <v>5.4406696364752523E-3</v>
       </c>
       <c r="E28">
-        <v>1.1076470449879134E-3</v>
+        <v>1.107647044988001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>-3.1276017142969192E-3</v>
+        <v>-3.127601714296917E-3</v>
       </c>
       <c r="B29">
-        <v>-9.2380774427972196E-4</v>
+        <v>-9.2380774427961733E-4</v>
       </c>
       <c r="C29">
-        <v>1.8604276946077795E-3</v>
+        <v>1.8604276946078858E-3</v>
       </c>
       <c r="D29">
-        <v>4.867866672207212E-3</v>
+        <v>4.8678666722073152E-3</v>
       </c>
       <c r="E29">
-        <v>1.0035187864783962E-3</v>
+        <v>1.0035187864784962E-3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>-2.7943504455891994E-3</v>
+        <v>-2.7943504455891967E-3</v>
       </c>
       <c r="B30">
-        <v>-8.2141448112747826E-4</v>
+        <v>-8.2141448112737299E-4</v>
       </c>
       <c r="C30">
-        <v>1.6666884578103618E-3</v>
+        <v>1.6666884578104659E-3</v>
       </c>
       <c r="D30">
-        <v>4.3558313684070888E-3</v>
+        <v>4.355831368407192E-3</v>
       </c>
       <c r="E30">
-        <v>9.1116965961507803E-4</v>
+        <v>9.1116965961518125E-4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>-2.4986887038085095E-3</v>
+        <v>-2.4986887038085073E-3</v>
       </c>
       <c r="B31">
-        <v>-7.3219827839017038E-4</v>
+        <v>-7.3219827839006543E-4</v>
       </c>
       <c r="C31">
-        <v>1.4924669117336259E-3</v>
+        <v>1.4924669117337287E-3</v>
       </c>
       <c r="D31">
-        <v>3.8979087001953343E-3</v>
+        <v>3.8979087001954384E-3</v>
       </c>
       <c r="E31">
-        <v>8.2463115243720895E-4</v>
+        <v>8.2463115243731661E-4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>-2.2359032569800865E-3</v>
+        <v>-2.2359032569800852E-3</v>
       </c>
       <c r="B32">
-        <v>-6.5443892989610144E-4</v>
+        <v>-6.5443892989599747E-4</v>
       </c>
       <c r="C32">
-        <v>1.3358056302616936E-3</v>
+        <v>1.3358056302617976E-3</v>
       </c>
       <c r="D32">
-        <v>3.488197413487105E-3</v>
+        <v>3.4881974134872117E-3</v>
       </c>
       <c r="E32">
-        <v>7.423026081483827E-4</v>
+        <v>7.4230260814848916E-4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>-2.0015953981343117E-3</v>
+        <v>-2.0015953981343099E-3</v>
       </c>
       <c r="B33">
-        <v>-5.860937563372348E-4</v>
+        <v>-5.8609375633713158E-4</v>
       </c>
       <c r="C33">
-        <v>1.1951425511734178E-3</v>
+        <v>1.1951425511735226E-3</v>
       </c>
       <c r="D33">
-        <v>3.1215112082029137E-3</v>
+        <v>3.1215112082030212E-3</v>
       </c>
       <c r="E33">
-        <v>6.6486151989891037E-4</v>
+        <v>6.6486151989901565E-4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>-1.7920505460024378E-3</v>
+        <v>-1.7920505460024372E-3</v>
       </c>
       <c r="B34">
-        <v>-5.2539060765624795E-4</v>
+        <v>-5.2539060765614332E-4</v>
       </c>
       <c r="C34">
-        <v>1.069095267948341E-3</v>
+        <v>1.069095267948447E-3</v>
       </c>
       <c r="D34">
-        <v>2.7932900447755903E-3</v>
+        <v>2.7932900447756952E-3</v>
       </c>
       <c r="E34">
-        <v>5.9353963293863805E-4</v>
+        <v>5.9353963293874495E-4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>-1.6042805702593257E-3</v>
+        <v>-1.6042805702593259E-3</v>
       </c>
       <c r="B35">
-        <v>-4.7098626016095301E-4</v>
+        <v>-4.7098626016084952E-4</v>
       </c>
       <c r="C35">
-        <v>9.5629965589733978E-4</v>
+        <v>9.5629965589744505E-4</v>
       </c>
       <c r="D35">
-        <v>2.4995051773313028E-3</v>
+        <v>2.4995051773314069E-3</v>
       </c>
       <c r="E35">
-        <v>5.2919259009915232E-4</v>
+        <v>5.2919259009925467E-4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -991,84 +991,84 @@
         <v>-1.4359030109698631E-3</v>
       </c>
       <c r="B36">
-        <v>-4.2204798887020517E-4</v>
+        <v>-4.220479888701006E-4</v>
       </c>
       <c r="C36">
-        <v>8.5548108341671457E-4</v>
+        <v>8.5548108341681757E-4</v>
       </c>
       <c r="D36">
-        <v>2.2365653923731659E-3</v>
+        <v>2.2365653923732713E-3</v>
       </c>
       <c r="E36">
-        <v>4.7193002192702645E-4</v>
+        <v>4.7193002192712929E-4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>-1.2849422493525018E-3</v>
+        <v>-1.284942249352501E-3</v>
       </c>
       <c r="B37">
-        <v>-3.7792670331875827E-4</v>
+        <v>-3.779267033186531E-4</v>
       </c>
       <c r="C37">
-        <v>7.653093303228312E-4</v>
+        <v>7.6530933032293669E-4</v>
       </c>
       <c r="D37">
-        <v>2.0012611037608929E-3</v>
+        <v>2.0012611037609979E-3</v>
       </c>
       <c r="E37">
-        <v>4.2134639131760534E-4</v>
+        <v>4.2134639131770877E-4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>-1.1497073422508577E-3</v>
+        <v>-1.1497073422508568E-3</v>
       </c>
       <c r="B38">
-        <v>-3.3837831678368475E-4</v>
+        <v>-3.3837831678357975E-4</v>
       </c>
       <c r="C38">
-        <v>6.8474758386722538E-4</v>
+        <v>6.8474758386733044E-4</v>
       </c>
       <c r="D38">
-        <v>1.7906935559118807E-3</v>
+        <v>1.7906935559119858E-3</v>
       </c>
       <c r="E38">
-        <v>3.765563116678409E-4</v>
+        <v>3.7655631166794618E-4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>-1.0286326307263468E-3</v>
+        <v>-1.028632630726346E-3</v>
       </c>
       <c r="B39">
-        <v>-3.0278535201754713E-4</v>
+        <v>-3.0278535201744294E-4</v>
       </c>
       <c r="C39">
-        <v>6.1248561290667167E-4</v>
+        <v>6.1248561290677597E-4</v>
       </c>
       <c r="D39">
-        <v>1.602280454198232E-3</v>
+        <v>1.6022804541983369E-3</v>
       </c>
       <c r="E39">
-        <v>3.3687261078338263E-4</v>
+        <v>3.3687261078348688E-4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>-9.2034393987272523E-4</v>
+        <v>-9.203439398727249E-4</v>
       </c>
       <c r="B40">
-        <v>-2.7136445633511652E-4</v>
+        <v>-2.7136445633501281E-4</v>
       </c>
       <c r="C40">
-        <v>5.4803797013354568E-4</v>
+        <v>5.4803797013364955E-4</v>
       </c>
       <c r="D40">
-        <v>1.4336524122502306E-3</v>
+        <v>1.4336524122503351E-3</v>
       </c>
       <c r="E40">
-        <v>3.0117005491540162E-4</v>
+        <v>3.011700549155063E-4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1076,169 +1076,169 @@
         <v>-8.2343685881170392E-4</v>
       </c>
       <c r="B41">
-        <v>-2.4281585584335272E-4</v>
+        <v>-2.4281585584324926E-4</v>
       </c>
       <c r="C41">
-        <v>4.8969798423050491E-4</v>
+        <v>4.8969798423060813E-4</v>
       </c>
       <c r="D41">
-        <v>1.2827702681218087E-3</v>
+        <v>1.2827702681219128E-3</v>
       </c>
       <c r="E41">
-        <v>2.6942454600807153E-4</v>
+        <v>2.6942454600817459E-4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <v>-7.3686985045354561E-4</v>
+        <v>-7.3686985045354593E-4</v>
       </c>
       <c r="B42">
-        <v>-2.1869308050348599E-4</v>
+        <v>-2.1869308050338553E-4</v>
       </c>
       <c r="C42">
-        <v>4.3830690805085235E-4</v>
+        <v>4.3830690805095421E-4</v>
       </c>
       <c r="D42">
-        <v>1.1476385667455325E-3</v>
+        <v>1.1476385667456366E-3</v>
       </c>
       <c r="E42">
-        <v>2.399487163025736E-4</v>
+        <v>2.3994871630267337E-4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
-        <v>-6.5924334033149021E-4</v>
+        <v>-6.5924334033149053E-4</v>
       </c>
       <c r="B43">
-        <v>-1.9532202833961269E-4</v>
+        <v>-1.953220283395149E-4</v>
       </c>
       <c r="C43">
-        <v>3.9018398704628802E-4</v>
+        <v>3.9018398704638793E-4</v>
       </c>
       <c r="D43">
-        <v>1.0267721131878692E-3</v>
+        <v>1.0267721131879729E-3</v>
       </c>
       <c r="E43">
-        <v>2.1446637430750249E-4</v>
+        <v>2.1446637430759852E-4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
-        <v>-5.9014980140648674E-4</v>
+        <v>-5.901498014064863E-4</v>
       </c>
       <c r="B44">
-        <v>-1.7890364840906958E-4</v>
+        <v>-1.7890364840897379E-4</v>
       </c>
       <c r="C44">
-        <v>3.5021608290159746E-4</v>
+        <v>3.5021608290169531E-4</v>
       </c>
       <c r="D44">
-        <v>9.1826129464414488E-4</v>
+        <v>9.1826129464424799E-4</v>
       </c>
       <c r="E44">
-        <v>1.8852589363407967E-4</v>
+        <v>1.8852589363417245E-4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
-        <v>-5.2765553701073257E-4</v>
+        <v>-5.2765553701073159E-4</v>
       </c>
       <c r="B45">
-        <v>-1.5748217026267033E-4</v>
+        <v>-1.5748217026257717E-4</v>
       </c>
       <c r="C45">
-        <v>3.0743488284614876E-4</v>
+        <v>3.0743488284624417E-4</v>
       </c>
       <c r="D45">
-        <v>8.214443828025317E-4</v>
+        <v>8.2144438280263373E-4</v>
       </c>
       <c r="E45">
-        <v>1.691787936858403E-4</v>
+        <v>1.6917879368593184E-4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
-        <v>-4.7296461077866975E-4</v>
+        <v>-4.7296461077866889E-4</v>
       </c>
       <c r="B46">
-        <v>-1.5317128720462677E-4</v>
+        <v>-1.531712872045396E-4</v>
       </c>
       <c r="C46">
-        <v>2.8038414705819044E-4</v>
+        <v>2.8038414705828293E-4</v>
       </c>
       <c r="D46">
-        <v>7.3372897250188751E-4</v>
+        <v>7.337289725019878E-4</v>
       </c>
       <c r="E46">
-        <v>1.4194018471920254E-4</v>
+        <v>1.4194018471928708E-4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
-        <v>-4.2171020358262358E-4</v>
+        <v>-4.2171020358262222E-4</v>
       </c>
       <c r="B47">
-        <v>-1.2506522772462458E-4</v>
+        <v>-1.2506522772454318E-4</v>
       </c>
       <c r="C47">
-        <v>2.3262082262732805E-4</v>
+        <v>2.3262082262741183E-4</v>
       </c>
       <c r="D47">
-        <v>6.5643749448150159E-4</v>
+        <v>6.5643749448160004E-4</v>
       </c>
       <c r="E47">
-        <v>1.3212218743541867E-4</v>
+        <v>1.3212218743549489E-4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
-        <v>-3.8012445737339195E-4</v>
+        <v>-3.8012445737339081E-4</v>
       </c>
       <c r="B48">
-        <v>-1.499999852858255E-4</v>
+        <v>-1.4999998528575917E-4</v>
       </c>
       <c r="C48">
-        <v>2.2981968886243324E-4</v>
+        <v>2.2981968886251109E-4</v>
       </c>
       <c r="D48">
-        <v>5.8385812130244208E-4</v>
+        <v>5.8385812130253728E-4</v>
       </c>
       <c r="E48">
-        <v>9.0557656257202816E-5</v>
+        <v>9.0557656257264087E-5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
-        <v>-3.3492134997303847E-4</v>
+        <v>-3.34921349973037E-4</v>
       </c>
       <c r="B49">
-        <v>-8.6401394565675449E-5</v>
+        <v>-8.6401394565620778E-5</v>
       </c>
       <c r="C49">
-        <v>1.4730424846073578E-4</v>
+        <v>1.4730424846079451E-4</v>
       </c>
       <c r="D49">
-        <v>5.2353476487431133E-4</v>
+        <v>5.2353476487440316E-4</v>
       </c>
       <c r="E49">
-        <v>1.0601137067029987E-4</v>
+        <v>1.060113706703451E-4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
-        <v>-3.0930600785307688E-4</v>
+        <v>-3.0930600785307666E-4</v>
       </c>
       <c r="B50">
-        <v>-1.999957967130827E-4</v>
+        <v>-1.9999579671306527E-4</v>
       </c>
       <c r="C50">
-        <v>2.1399211138816254E-4</v>
+        <v>2.1399211138821073E-4</v>
       </c>
       <c r="D50">
-        <v>4.5841701433144578E-4</v>
+        <v>4.584170143315311E-4</v>
       </c>
       <c r="E50">
-        <v>9.6568751481828938E-6</v>
+        <v>9.6568751481910914E-6</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/result/IPI_plus.xlsx
+++ b/result/IPI_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{F8DD7346-64BE-4898-919B-14400F089315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{176AB61F-4180-4A3D-9BCF-605CBBB18B36}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{F8DD7346-64BE-4898-919B-14400F089315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{479073FE-440B-40FE-B8B9-A50D7F2A839F}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4380" windowWidth="19365" windowHeight="10275" xr2:uid="{60EED335-6015-4A3C-8FDB-D7C250FF284E}"/>
   </bookViews>
